--- a/key_table.xlsx
+++ b/key_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltjd\ALINE\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2FC29-1301-4452-8F57-35ABFF39198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7925076A-DA0E-41F0-84B8-2C2FDB2B3F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="17835" windowWidth="18150" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>todo</t>
   </si>
@@ -147,21 +147,6 @@
     <t>기본입찰가</t>
   </si>
   <si>
-    <t>총</t>
-  </si>
-  <si>
-    <t>소재on</t>
-  </si>
-  <si>
-    <t>소재off 예정</t>
-  </si>
-  <si>
-    <t>소재명 수정 예정</t>
-  </si>
-  <si>
-    <t>입찰가변경 예정</t>
-  </si>
-  <si>
     <t>대기키워드</t>
   </si>
   <si>
@@ -190,13 +175,6 @@
   </si>
   <si>
     <t>전환액</t>
-  </si>
-  <si>
-    <t>노출상품명
-소재/그룹 SID
-순위/노출/클릭/전환수/그룹명
-비용&gt;변경
-(노출▶클릭순▶)</t>
   </si>
   <si>
     <t>매출건</t>
@@ -215,6 +193,198 @@
     <t>1.노출수: 캠핑,돌출,아이방 문패 상품 구성 추천
 2.클릭수: -
 3.전환수: 현관,호수 상품 수요 확인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>총(삭제포함)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용안되는 소재 점검</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>소재 점검 필요</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 소재</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰가 변경</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>양호 소재</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 소재</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 소재
+소재명/입찰가/그룹ID/상품ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문포장 테이크아웃 식당 LED조명 루미사인(원본)
+4.4/69/3/0/385/0
+on/240
+nad-a001-02-000000138272068/grp-a001-02-000000021786478/5252296282</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>불량소재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+야자수 홈포차 와인 나래바 화자카야 LED간판(m)
+4.3/188/1/0/374/0
+on/370
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nad-a001-02-000000138288504</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/grp-a001-02-000000021807481/5543209252</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소재점검필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+펜꽂이(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>원본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+nan/nan/nan/nan/nan/nan
+on/50
+nad-a001-02-000000144208113/grp-a001-02-000000021786478/5742869597</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입찰가변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+야자수 여름 캠핑간판문패 분위기(e)
+6.3/500/1/0/374/0
+on/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>370&gt;360</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+nad-a001-02-000000138288671/grp-a001-02-000000021807488/5543209252</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -344,6 +507,23 @@
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -572,40 +752,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -617,12 +787,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -631,9 +795,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -682,19 +843,42 @@
     <xf numFmtId="41" fontId="7" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -705,6 +889,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="쉼표 [0]" xfId="5" builtinId="6"/>
@@ -718,6 +920,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0070C0"/>
       <color rgb="FFF1350F"/>
     </mruColors>
   </colors>
@@ -999,15 +1202,15 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
@@ -1015,21 +1218,26 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1059,57 +1267,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="38" customWidth="1"/>
-    <col min="7" max="8" width="9" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="9" style="18" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="18" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="3.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="31" customWidth="1"/>
+    <col min="7" max="8" width="9" style="12" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="12" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="K2" s="8" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:24" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:24" s="33" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -1117,11 +1325,11 @@
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="33" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3" s="43"/>
       <c r="N3" s="43"/>
@@ -1137,679 +1345,679 @@
       <c r="X3" s="43"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="K5" s="21" t="s">
+      <c r="F5" s="12"/>
+      <c r="K5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="15">
         <v>5</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
     </row>
     <row r="6" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="K6" s="27" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="K6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="27">
         <v>10</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="K7" s="31" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="K7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
     </row>
     <row r="8" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
-      <c r="K8" s="32" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="32"/>
+      <c r="K8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
     </row>
     <row r="9" spans="2:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
-      <c r="K9" s="33" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="32"/>
+      <c r="K9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
-      <c r="K11" s="24" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="32"/>
+      <c r="K11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
     </row>
     <row r="12" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
-      <c r="K12" s="29" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="32"/>
+      <c r="K12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="K13" s="8" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="K13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="39"/>
-      <c r="K14" s="8" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="32"/>
+      <c r="K14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="39"/>
-      <c r="K15" s="8" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="K15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
-      <c r="K16" s="8" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="32"/>
+      <c r="K16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="39"/>
-      <c r="K17" s="8" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="K17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="39"/>
-      <c r="K18" s="8" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="32"/>
+      <c r="K18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="K19" s="8" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="K19" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39"/>
-      <c r="K20" s="8" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="32"/>
+      <c r="K20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="39"/>
-      <c r="K21" s="8" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="32"/>
+      <c r="K21" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39"/>
-      <c r="K22" s="8" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="32"/>
+      <c r="K22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="25"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="37"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="39"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="32"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="39"/>
-      <c r="K24" s="14" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="32"/>
+      <c r="K24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="39"/>
-      <c r="J25" s="23" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="J25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="19" t="s">
+      <c r="P25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="25"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
+      <c r="Q25" s="18"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="39"/>
-      <c r="J26" s="23" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="32"/>
+      <c r="J26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
+      <c r="K26" s="18"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="37"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="39"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="37"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="39"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="39"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="39"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="37"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="39"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="39"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="39"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="37"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="39"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="39"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="39"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="39"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="39"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="37"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="39"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="39"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="39"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="39"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="39"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="37"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="39"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="39"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="39"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="37"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="39"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="37"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="39"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="32"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="39"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="37"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="39"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="37"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="39"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="32"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="39"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="32"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="39"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="32"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="39"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="32"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="39"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="32"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="39"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="32"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="39"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="39"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="32"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="37"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="39"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="32"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="37"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="39"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="32"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="39"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="32"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="37"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="39"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="32"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="37"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="39"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="32"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="39"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="32"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="39"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="32"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="39"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="32"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="39"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="32"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="39"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="32"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="39"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="32"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="39"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="32"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="39"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="32"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="39"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="32"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="37"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="39"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="32"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="37"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="39"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="32"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="37"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="39"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="32"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="37"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="39"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="32"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="37"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="32"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="37"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="39"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="32"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="37"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="39"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="32"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="37"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="39"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1825,24 +2033,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:AJ133"/>
+  <dimension ref="A2:AW133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="6.75" style="17" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="17" customWidth="1"/>
-    <col min="15" max="24" width="17.5" style="7" customWidth="1"/>
-    <col min="25" max="27" width="1.625" style="7" customWidth="1"/>
-    <col min="28" max="35" width="1.625" style="5" customWidth="1"/>
-    <col min="36" max="36" width="1.625" style="17" customWidth="1"/>
+    <col min="2" max="5" width="12.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="11" customWidth="1"/>
+    <col min="15" max="24" width="17.5" style="4" customWidth="1"/>
+    <col min="25" max="35" width="1.625" style="4" customWidth="1"/>
+    <col min="36" max="36" width="1.625" style="34" customWidth="1"/>
+    <col min="37" max="49" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -1864,6 +2069,15 @@
       <c r="G2" t="s">
         <v>36</v>
       </c>
+      <c r="O2" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C3">
@@ -1881,1177 +2095,1144 @@
       <c r="G3">
         <v>300</v>
       </c>
+      <c r="O3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
         <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="J9" s="44" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
       <c r="M9" s="45"/>
       <c r="N9" s="45"/>
-      <c r="O9" s="20" t="s">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C10" s="40"/>
-      <c r="J10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N10" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="G11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="M11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>3</v>
-      </c>
-      <c r="R11" s="6">
-        <v>4</v>
-      </c>
-      <c r="S11" s="6">
-        <v>5</v>
-      </c>
-      <c r="T11" s="6">
-        <v>6</v>
-      </c>
-      <c r="U11" s="6">
-        <v>7</v>
-      </c>
-      <c r="V11" s="6">
-        <v>8</v>
-      </c>
-      <c r="W11" s="6">
-        <v>9</v>
-      </c>
-      <c r="X11" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-    </row>
-    <row r="13" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" spans="1:29" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-    </row>
-    <row r="14" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-    </row>
-    <row r="15" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
+      <c r="P15" s="46"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
     </row>
     <row r="16" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
     </row>
     <row r="17" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
     </row>
     <row r="19" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
     </row>
     <row r="20" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
     </row>
     <row r="21" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
     </row>
     <row r="22" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
     </row>
     <row r="23" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
     </row>
     <row r="24" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
     </row>
     <row r="25" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
     </row>
     <row r="26" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
     </row>
     <row r="27" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
     </row>
     <row r="29" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
     </row>
     <row r="30" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
     </row>
     <row r="31" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
     </row>
     <row r="32" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
     </row>
     <row r="33" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
     </row>
     <row r="34" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
     </row>
     <row r="35" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
     </row>
     <row r="36" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
     </row>
     <row r="37" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
     </row>
     <row r="38" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
     </row>
     <row r="39" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
     </row>
     <row r="40" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
     </row>
     <row r="41" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
     </row>
     <row r="42" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
     </row>
     <row r="43" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
     </row>
     <row r="44" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
     </row>
     <row r="45" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
     </row>
     <row r="46" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
     </row>
     <row r="47" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
     </row>
     <row r="48" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
     </row>
     <row r="49" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
     </row>
     <row r="50" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="9"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
     </row>
     <row r="51" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
     </row>
     <row r="52" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
     </row>
     <row r="53" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
     </row>
     <row r="54" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
     </row>
     <row r="55" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
     </row>
     <row r="56" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
     </row>
     <row r="57" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
     </row>
     <row r="58" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
     </row>
     <row r="59" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
     </row>
     <row r="60" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
     </row>
     <row r="61" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
     </row>
     <row r="62" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
-      <c r="AB62" s="10"/>
-      <c r="AC62" s="10"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
     </row>
     <row r="63" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
-      <c r="AB63" s="10"/>
-      <c r="AC63" s="10"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
     </row>
     <row r="64" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="10"/>
-      <c r="AC64" s="10"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
     </row>
     <row r="65" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="10"/>
-      <c r="AC65" s="10"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
     </row>
     <row r="66" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
-      <c r="AB66" s="10"/>
-      <c r="AC66" s="10"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
     </row>
     <row r="67" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
-      <c r="AB67" s="10"/>
-      <c r="AC67" s="10"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
     </row>
     <row r="68" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
     </row>
     <row r="69" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
     </row>
     <row r="70" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
-      <c r="AB70" s="10"/>
-      <c r="AC70" s="10"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
     </row>
     <row r="71" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="9"/>
-      <c r="AB71" s="10"/>
-      <c r="AC71" s="10"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
     </row>
     <row r="72" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
     </row>
     <row r="73" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
     </row>
     <row r="74" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
     </row>
     <row r="75" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-      <c r="AA75" s="9"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
     </row>
     <row r="76" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
-      <c r="AA76" s="9"/>
-      <c r="AB76" s="10"/>
-      <c r="AC76" s="10"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
     </row>
     <row r="77" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="10"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
     </row>
     <row r="78" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y78" s="9"/>
-      <c r="Z78" s="9"/>
-      <c r="AA78" s="9"/>
-      <c r="AB78" s="10"/>
-      <c r="AC78" s="10"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
     </row>
     <row r="79" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="9"/>
-      <c r="AA79" s="9"/>
-      <c r="AB79" s="10"/>
-      <c r="AC79" s="10"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
     </row>
     <row r="80" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
-      <c r="AB80" s="10"/>
-      <c r="AC80" s="10"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
     </row>
     <row r="81" spans="1:29" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y81" s="9"/>
-      <c r="Z81" s="9"/>
-      <c r="AA81" s="9"/>
-      <c r="AB81" s="10"/>
-      <c r="AC81" s="10"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y82" s="9"/>
-      <c r="Z82" s="9"/>
-      <c r="AA82" s="9"/>
-      <c r="AB82" s="10"/>
-      <c r="AC82" s="10"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y83" s="9"/>
-      <c r="Z83" s="9"/>
-      <c r="AA83" s="9"/>
-      <c r="AB83" s="10"/>
-      <c r="AC83" s="10"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y84" s="9"/>
-      <c r="Z84" s="9"/>
-      <c r="AA84" s="9"/>
-      <c r="AB84" s="10"/>
-      <c r="AC84" s="10"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y85" s="9"/>
-      <c r="Z85" s="9"/>
-      <c r="AA85" s="9"/>
-      <c r="AB85" s="10"/>
-      <c r="AC85" s="10"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y86" s="9"/>
-      <c r="Z86" s="9"/>
-      <c r="AA86" s="9"/>
-      <c r="AB86" s="10"/>
-      <c r="AC86" s="10"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y87" s="9"/>
-      <c r="Z87" s="9"/>
-      <c r="AA87" s="9"/>
-      <c r="AB87" s="10"/>
-      <c r="AC87" s="10"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y88" s="9"/>
-      <c r="Z88" s="9"/>
-      <c r="AA88" s="9"/>
-      <c r="AB88" s="10"/>
-      <c r="AC88" s="10"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y89" s="9"/>
-      <c r="Z89" s="9"/>
-      <c r="AA89" s="9"/>
-      <c r="AB89" s="10"/>
-      <c r="AC89" s="10"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="6"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y90" s="9"/>
-      <c r="Z90" s="9"/>
-      <c r="AA90" s="9"/>
-      <c r="AB90" s="10"/>
-      <c r="AC90" s="10"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y91" s="9"/>
-      <c r="Z91" s="9"/>
-      <c r="AA91" s="9"/>
-      <c r="AB91" s="10"/>
-      <c r="AC91" s="10"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y92" s="9"/>
-      <c r="Z92" s="9"/>
-      <c r="AA92" s="9"/>
-      <c r="AB92" s="10"/>
-      <c r="AC92" s="10"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y93" s="9"/>
-      <c r="Z93" s="9"/>
-      <c r="AA93" s="9"/>
-      <c r="AB93" s="10"/>
-      <c r="AC93" s="10"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y94" s="9"/>
-      <c r="Z94" s="9"/>
-      <c r="AA94" s="9"/>
-      <c r="AB94" s="10"/>
-      <c r="AC94" s="10"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y95" s="9"/>
-      <c r="Z95" s="9"/>
-      <c r="AA95" s="9"/>
-      <c r="AB95" s="10"/>
-      <c r="AC95" s="10"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y96" s="9"/>
-      <c r="Z96" s="9"/>
-      <c r="AA96" s="9"/>
-      <c r="AB96" s="10"/>
-      <c r="AC96" s="10"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
+      <c r="AA96" s="6"/>
+      <c r="AB96" s="6"/>
+      <c r="AC96" s="6"/>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y97" s="9"/>
-      <c r="Z97" s="9"/>
-      <c r="AA97" s="9"/>
-      <c r="AB97" s="10"/>
-      <c r="AC97" s="10"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="6"/>
+      <c r="AC97" s="6"/>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y98" s="9"/>
-      <c r="Z98" s="9"/>
-      <c r="AA98" s="9"/>
-      <c r="AB98" s="10"/>
-      <c r="AC98" s="10"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
+      <c r="AA98" s="6"/>
+      <c r="AB98" s="6"/>
+      <c r="AC98" s="6"/>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y99" s="9"/>
-      <c r="Z99" s="9"/>
-      <c r="AA99" s="9"/>
-      <c r="AB99" s="10"/>
-      <c r="AC99" s="10"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
+      <c r="AA99" s="6"/>
+      <c r="AB99" s="6"/>
+      <c r="AC99" s="6"/>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y100" s="9"/>
-      <c r="Z100" s="9"/>
-      <c r="AA100" s="9"/>
-      <c r="AB100" s="10"/>
-      <c r="AC100" s="10"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y101" s="9"/>
-      <c r="Z101" s="9"/>
-      <c r="AA101" s="9"/>
-      <c r="AB101" s="10"/>
-      <c r="AC101" s="10"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="6"/>
+      <c r="AC101" s="6"/>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y102" s="9"/>
-      <c r="Z102" s="9"/>
-      <c r="AA102" s="9"/>
-      <c r="AB102" s="10"/>
-      <c r="AC102" s="10"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="6"/>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="6"/>
+      <c r="AC102" s="6"/>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y103" s="9"/>
-      <c r="Z103" s="9"/>
-      <c r="AA103" s="9"/>
-      <c r="AB103" s="10"/>
-      <c r="AC103" s="10"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f>IFERROR(MATCH(#REF!,#REF!,0),"")</f>
         <v/>
       </c>
-      <c r="Y104" s="9"/>
-      <c r="Z104" s="9"/>
-      <c r="AA104" s="9"/>
-      <c r="AB104" s="10"/>
-      <c r="AC104" s="10"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
